--- a/resources/assets/template-import-students.xlsx
+++ b/resources/assets/template-import-students.xlsx
@@ -69,7 +69,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0">
+    <comment ref="P1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -87,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="18">
   <si>
     <t>Фамилия *</t>
   </si>
@@ -123,6 +123,9 @@
   </si>
   <si>
     <t>Дата поступления в учебное заведение *</t>
+  </si>
+  <si>
+    <t>Специальность *</t>
   </si>
   <si>
     <t>Класс / группа (на момент заполнения)</t>
@@ -194,7 +197,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -232,28 +235,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="12"/>
-      </left>
-      <right style="thin">
-        <color indexed="12"/>
-      </right>
-      <top style="thin">
-        <color indexed="12"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="12"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -264,9 +252,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -492,17 +477,17 @@
         <a:solidFill>
           <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -530,10 +515,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -781,12 +766,12 @@
     <a:lnDef>
       <a:spPr>
         <a:noFill/>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -1073,7 +1058,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1101,10 +1086,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1355,7 +1340,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:Q10"/>
+  <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1373,12 +1358,12 @@
     <col min="10" max="10" width="24.6719" style="1" customWidth="1"/>
     <col min="11" max="11" width="16" style="1" customWidth="1"/>
     <col min="12" max="12" width="17.8516" style="1" customWidth="1"/>
-    <col min="13" max="13" width="19.6719" style="1" customWidth="1"/>
-    <col min="14" max="14" width="16.5" style="1" customWidth="1"/>
-    <col min="15" max="15" width="18" style="1" customWidth="1"/>
-    <col min="16" max="16" width="22.5" style="1" customWidth="1"/>
-    <col min="17" max="17" width="17.1719" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="8.85156" style="1" customWidth="1"/>
+    <col min="13" max="14" width="19.6719" style="1" customWidth="1"/>
+    <col min="15" max="15" width="16.5" style="1" customWidth="1"/>
+    <col min="16" max="16" width="18" style="1" customWidth="1"/>
+    <col min="17" max="17" width="22.5" style="1" customWidth="1"/>
+    <col min="18" max="18" width="17.1719" style="1" customWidth="1"/>
+    <col min="19" max="16384" width="8.85156" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="51" customHeight="1">
@@ -1432,6 +1417,9 @@
       </c>
       <c r="Q1" t="s" s="2">
         <v>16</v>
+      </c>
+      <c r="R1" t="s" s="2">
+        <v>17</v>
       </c>
     </row>
     <row r="2" ht="13.55" customHeight="1">
@@ -1452,158 +1440,7 @@
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
       <c r="Q2" s="3"/>
-    </row>
-    <row r="3" ht="13.55" customHeight="1">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-    </row>
-    <row r="4" ht="13.55" customHeight="1">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-    </row>
-    <row r="5" ht="13.55" customHeight="1">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-    </row>
-    <row r="6" ht="13.55" customHeight="1">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
-    </row>
-    <row r="7" ht="13.55" customHeight="1">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
-    </row>
-    <row r="8" ht="13.55" customHeight="1">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-    </row>
-    <row r="9" ht="13.55" customHeight="1">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
-    </row>
-    <row r="10" ht="13.55" customHeight="1">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
+      <c r="R2" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
